--- a/published-data/fonds-solidarite/fds-2022-06-09/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-09/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -3362,13 +3362,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>331322</v>
+        <v>331324</v>
       </c>
       <c r="D72" t="n">
         <v>71642</v>
       </c>
       <c r="E72" t="n">
-        <v>635418867</v>
+        <v>635433930</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>81805</v>
+        <v>81807</v>
       </c>
       <c r="D115" t="n">
         <v>14448</v>
       </c>
       <c r="E115" t="n">
-        <v>436644943</v>
+        <v>436705589</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1306309</v>
+        <v>1306310</v>
       </c>
       <c r="D121" t="n">
         <v>220385</v>
       </c>
       <c r="E121" t="n">
-        <v>2275212350</v>
+        <v>2275214180</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>633658</v>
+        <v>633662</v>
       </c>
       <c r="D129" t="n">
         <v>104969</v>
       </c>
       <c r="E129" t="n">
-        <v>3432401446</v>
+        <v>3432605489</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>585922</v>
+        <v>585928</v>
       </c>
       <c r="D132" t="n">
         <v>90784</v>
       </c>
       <c r="E132" t="n">
-        <v>3470231848</v>
+        <v>3470425307</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5986,13 +5986,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>26697</v>
+        <v>26700</v>
       </c>
       <c r="D136" t="n">
         <v>4273</v>
       </c>
       <c r="E136" t="n">
-        <v>144344334</v>
+        <v>144374334</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -6314,13 +6314,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>25083</v>
+        <v>25085</v>
       </c>
       <c r="D144" t="n">
         <v>6170</v>
       </c>
       <c r="E144" t="n">
-        <v>92541885</v>
+        <v>92550331</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6806,13 +6806,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>12408</v>
+        <v>12409</v>
       </c>
       <c r="D156" t="n">
         <v>2144</v>
       </c>
       <c r="E156" t="n">
-        <v>40519203</v>
+        <v>40553253</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -10250,13 +10250,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>205918</v>
+        <v>205925</v>
       </c>
       <c r="D240" t="n">
         <v>33984</v>
       </c>
       <c r="E240" t="n">
-        <v>1069509020</v>
+        <v>1069623635</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
